--- a/public/static/file/user_import_file.xlsx
+++ b/public/static/file/user_import_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>用户导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,6 +179,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -182,9 +189,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,54 +485,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="16.125" style="2"/>
-    <col min="9" max="16384" width="16.125" style="1"/>
+    <col min="1" max="9" width="16.125" style="2"/>
+    <col min="10" max="16384" width="16.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/file/user_import_file.xlsx
+++ b/public/static/file/user_import_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,13 +54,81 @@
   <si>
     <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鉴兰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nancy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒介经理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaodiao9933</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> nancy.liu@jckk.net</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒介部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄嘉琪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jessie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒介专员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>iskkwong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jessie.huang@jckk.net</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>何幸蔓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vera</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务助理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_1801728017511</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vera.he@jckk.net</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +162,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +286,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,15 +600,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="16.125" style="2"/>
+    <col min="1" max="1" width="16.125" style="2"/>
+    <col min="2" max="2" width="16.125" style="11"/>
+    <col min="3" max="6" width="16.125" style="2"/>
+    <col min="7" max="7" width="22.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="2"/>
     <col min="10" max="16384" width="16.125" style="1"/>
   </cols>
   <sheetData>
@@ -513,7 +633,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -536,6 +656,93 @@
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8">
+        <v>18202801837</v>
+      </c>
+      <c r="F3" s="8">
+        <v>867038874</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8">
+        <v>18826522677</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3201560988</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8">
+        <v>13823170322</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3198301976</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +750,11 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/static/file/user_import_file.xlsx
+++ b/public/static/file/user_import_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
   <si>
     <t>vera.he@jckk.net</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -279,6 +283,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,24 +308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,159 +604,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.125" style="2"/>
-    <col min="2" max="2" width="16.125" style="11"/>
-    <col min="3" max="6" width="16.125" style="2"/>
-    <col min="7" max="7" width="22.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="2"/>
-    <col min="10" max="16384" width="16.125" style="1"/>
+    <col min="2" max="2" width="16.125" style="8"/>
+    <col min="3" max="7" width="16.125" style="2"/>
+    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="2"/>
+    <col min="11" max="16384" width="16.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1">
+    <row r="2" spans="1:10" ht="24.95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.95" customHeight="1">
+    <row r="3" spans="1:10" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
         <v>18202801837</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="5">
         <v>867038874</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1">
+    <row r="4" spans="1:10" ht="24.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="5">
         <v>18826522677</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="5">
         <v>3201560988</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.95" customHeight="1">
+    <row r="5" spans="1:10" ht="24.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="5">
         <v>13823170322</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="5">
         <v>3198301976</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
